--- a/tablaQA.xlsx
+++ b/tablaQA.xlsx
@@ -1379,13 +1379,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1420,3186 +1416,3186 @@
   <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="93.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="2"/>
       <c r="D172" s="0" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="3"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="3"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="3"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="3"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="3"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="3"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="3"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="3"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="3"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="3"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="3"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="3"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="3"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="3"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="3"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="3"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="3"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="3"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="3"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="3"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="3"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="3"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="3"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="3"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="3"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="3"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="3"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="3"/>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="3"/>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="3"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="3"/>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="3"/>
+      <c r="B297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3"/>
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="3"/>
+      <c r="B299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="3"/>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="3"/>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="3"/>
+      <c r="B303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="3"/>
-      <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="3"/>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="3"/>
+      <c r="B306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="3"/>
+      <c r="B308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="3"/>
+      <c r="B309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="3"/>
+      <c r="B311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="3"/>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="3"/>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="3"/>
+      <c r="B315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="3"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="3"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="3"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="3"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="3"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="3"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="3"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="3"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="3"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="3"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="3"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="3"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="3"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3"/>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="3"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="3"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="3"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="3"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="3"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="3"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="3"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="3"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="3"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="3"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="3"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="3"/>
-      <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="3"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="3"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="3"/>
-      <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B353" s="3"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="3"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="3"/>
-      <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="3"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="3"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="3"/>
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="3"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="3"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="3"/>
-      <c r="B361" s="3"/>
-      <c r="C361" s="3"/>
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B362" s="3"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="3"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="3"/>
-      <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="3"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B366" s="3"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="3"/>
-      <c r="B367" s="3"/>
-      <c r="C367" s="3"/>
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B368" s="3"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="3"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="3"/>
-      <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="3"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B372" s="3"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="3"/>
-      <c r="B373" s="3"/>
-      <c r="C373" s="3"/>
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="3"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B375" s="3"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="3"/>
-      <c r="B376" s="3"/>
-      <c r="C376" s="3"/>
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B377" s="3"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="3"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="3"/>
-      <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="3"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B381" s="3"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="3"/>
-      <c r="B382" s="3"/>
-      <c r="C382" s="3"/>
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B383" s="3"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="3"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="3"/>
-      <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="3"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="3"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="3"/>
-      <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="3"/>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="3"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="3"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="3"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B394" s="3"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="3"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="3"/>
-      <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B397" s="3"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="3"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="3"/>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="3"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="3"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="3"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B404" s="3"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="3"/>
-      <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B406" s="3"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B407" s="3"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="3"/>
-      <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="3"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="3"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="3"/>
-      <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="3"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B413" s="3"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="3"/>
-      <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="3"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B416" s="3"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="3"/>
-      <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="3"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B419" s="3"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="3"/>
-      <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B421" s="3"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B422" s="3"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="3"/>
-      <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="3"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="3"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="3"/>
-      <c r="B426" s="3"/>
-      <c r="C426" s="3"/>
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="3"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="3"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="3"/>
-      <c r="B429" s="3"/>
-      <c r="C429" s="3"/>
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B430" s="3"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="3"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="3"/>
-      <c r="B432" s="3"/>
-      <c r="C432" s="3"/>
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B433" s="3"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B434" s="3"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="3"/>
-      <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="3"/>
+      <c r="B436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="3"/>
+      <c r="B437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="3"/>
-      <c r="B438" s="3"/>
-      <c r="C438" s="3"/>
+      <c r="A438" s="2"/>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B439" s="3"/>
+      <c r="B439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="3"/>
+      <c r="B440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="3"/>
-      <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B442" s="3"/>
+      <c r="B442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B443" s="3"/>
+      <c r="B443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="3"/>
-      <c r="B444" s="3"/>
-      <c r="C444" s="3"/>
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="3"/>
+      <c r="B445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="3"/>
+      <c r="B446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="3"/>
-      <c r="B447" s="3"/>
-      <c r="C447" s="3"/>
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="3"/>
+      <c r="B448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="3"/>
+      <c r="B449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="3"/>
-      <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="3"/>
+      <c r="B451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="3"/>
+      <c r="B452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="3"/>
-      <c r="B453" s="3"/>
-      <c r="C453" s="3"/>
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="3"/>
+      <c r="B454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="3"/>
+      <c r="B455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="3"/>
-      <c r="B456" s="3"/>
-      <c r="C456" s="3"/>
+      <c r="A456" s="2"/>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="3"/>
+      <c r="B457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="3"/>
+      <c r="B458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="3"/>
-      <c r="B459" s="3"/>
-      <c r="C459" s="3"/>
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="3"/>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B461" s="3"/>
+      <c r="B461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="3"/>
-      <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="3"/>
+      <c r="B463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B464" s="3"/>
+      <c r="B464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="3"/>
-      <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B466" s="3"/>
+      <c r="B466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="3"/>
+      <c r="B467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="3"/>
-      <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B469" s="3"/>
+      <c r="B469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="3"/>
+      <c r="B470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="3"/>
-      <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B472" s="3"/>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="3"/>
+      <c r="B473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="3"/>
-      <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="3"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B476" s="3"/>
+      <c r="B476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="3"/>
-      <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="3"/>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="3"/>
+      <c r="B479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="3"/>
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B481" s="3"/>
+      <c r="B481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="3"/>
+      <c r="B482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="3"/>
-      <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B484" s="3"/>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B485" s="3"/>
+      <c r="B485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="3"/>
-      <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="3"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B488" s="3"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="3"/>
-      <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B490" s="3"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B491" s="3"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="3"/>
-      <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="3"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="3"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="3"/>
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="3"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="3"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="3"/>
-      <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
+      <c r="A498" s="2"/>
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="3"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="3"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="3"/>
-      <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
+      <c r="A501" s="2"/>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="3"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="3"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="3"/>
-      <c r="B504" s="3"/>
-      <c r="C504" s="3"/>
+      <c r="A504" s="2"/>
+      <c r="B504" s="2"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="3"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="3"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="3"/>
-      <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="3"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="3"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="3"/>
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="3"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="3"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="3"/>
-      <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
+      <c r="A513" s="2"/>
+      <c r="B513" s="2"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="3"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="3"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="3"/>
-      <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="3"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="3"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="3"/>
-      <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="3"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="3"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="3"/>
-      <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="3"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="3"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="3"/>
-      <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="3"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="3"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="3"/>
-      <c r="B528" s="3"/>
-      <c r="C528" s="3"/>
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="3"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="3"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="3"/>
-      <c r="B531" s="3"/>
-      <c r="C531" s="3"/>
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="3"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="3"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="3"/>
-      <c r="B534" s="3"/>
-      <c r="C534" s="3"/>
+      <c r="A534" s="2"/>
+      <c r="B534" s="2"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="3"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="3"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="3"/>
-      <c r="B537" s="3"/>
-      <c r="C537" s="3"/>
+      <c r="A537" s="2"/>
+      <c r="B537" s="2"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="3"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="3"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="3"/>
-      <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="3"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="3"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="3"/>
-      <c r="B543" s="3"/>
-      <c r="C543" s="3"/>
+      <c r="A543" s="2"/>
+      <c r="B543" s="2"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="3"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="3"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="3"/>
-      <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
+      <c r="A546" s="2"/>
+      <c r="B546" s="2"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="3"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="3"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="3"/>
-      <c r="B549" s="3"/>
-      <c r="C549" s="3"/>
+      <c r="A549" s="2"/>
+      <c r="B549" s="2"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="3"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="3"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="3"/>
-      <c r="B552" s="3"/>
-      <c r="C552" s="3"/>
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="3"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="3"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="3"/>
-      <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
+      <c r="A555" s="2"/>
+      <c r="B555" s="2"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="3"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="3"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="3"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="3"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B560" s="3"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B561" s="3"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B562" s="3"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B563" s="3"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B564" s="3"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B565" s="3"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B566" s="3"/>
+      <c r="B566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B567" s="3"/>
+      <c r="B567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B568" s="3"/>
+      <c r="B568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B569" s="3"/>
+      <c r="B569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B570" s="3"/>
+      <c r="B570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B571" s="3"/>
+      <c r="B571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B572" s="3"/>
+      <c r="B572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B573" s="3"/>
+      <c r="B573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B574" s="3"/>
+      <c r="B574" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4623,280 +4619,280 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4922,80 +4918,80 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5019,10 +5015,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>421</v>
       </c>
     </row>

--- a/tablaQA.xlsx
+++ b/tablaQA.xlsx
@@ -9,9 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="tablaQA" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="mensajes entrada" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="respuestas salida" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="referencias" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t xml:space="preserve">PREGUNTA</t>
   </si>
@@ -1232,63 +1229,6 @@
   </si>
   <si>
     <t xml:space="preserve">Una piña.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mensaje_entrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saludo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hola, como estás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buenos días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buenas tardes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me puedes decir tu nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como te llamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">despedida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasta luego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">informacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bien, gracias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me llamo Bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mejorconsalud.as.com/preguntas-cultura-general-respuestas/</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1324,14 +1264,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1379,7 +1311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1390,10 +1322,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1415,11 +1343,11 @@
   </sheetPr>
   <dimension ref="A1:D574"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.43"/>
@@ -4606,432 +4534,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C34"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.98"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://mejorconsalud.as.com/preguntas-cultura-general-respuestas/"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>